--- a/AutomationTesting_ERP2020-selenium3.14/resource/case.xlsx
+++ b/AutomationTesting_ERP2020-selenium3.14/resource/case.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9889" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11420" uniqueCount="366">
   <si>
     <t>自动化测试配置</t>
   </si>
@@ -2305,6 +2305,79 @@
   </si>
   <si>
     <t>34秒（0分钟）</t>
+  </si>
+  <si>
+    <t>H0502_0002</t>
+  </si>
+  <si>
+    <t>09:28:23</t>
+  </si>
+  <si>
+    <t>09:39:57</t>
+  </si>
+  <si>
+    <t>20201116-093926</t>
+  </si>
+  <si>
+    <t>20201116-093957</t>
+  </si>
+  <si>
+    <t>09:48:58</t>
+  </si>
+  <si>
+    <t>20201116-094827</t>
+  </si>
+  <si>
+    <t>20201116-094859</t>
+  </si>
+  <si>
+    <t>32秒（0分钟）</t>
+  </si>
+  <si>
+    <t>H0502_0003</t>
+  </si>
+  <si>
+    <t>20201116-102443</t>
+  </si>
+  <si>
+    <t>20201116-102426</t>
+  </si>
+  <si>
+    <t>17秒（0分钟）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H0502_0003
+</t>
+  </si>
+  <si>
+    <t>10:33:32</t>
+  </si>
+  <si>
+    <t>20201116-103228</t>
+  </si>
+  <si>
+    <t>20201116-103332</t>
+  </si>
+  <si>
+    <t>64秒（1分钟）</t>
+  </si>
+  <si>
+    <t>H0502_0004</t>
+  </si>
+  <si>
+    <t>11:52:01</t>
+  </si>
+  <si>
+    <t>11:52:25</t>
+  </si>
+  <si>
+    <t>20201116-115210</t>
+  </si>
+  <si>
+    <t>20201116-115225</t>
+  </si>
+  <si>
+    <t>15秒（0分钟）</t>
   </si>
 </sst>
 </file>
@@ -2317,7 +2390,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="114">
+  <fonts count="127">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2538,6 +2611,71 @@
       <color indexed="63"/>
       <name val="Tahoma"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <name val="仿宋_GB2312"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="仿宋_GB2312"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="仿宋_GB2312"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="仿宋_GB2312"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="仿宋_GB2312"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="仿宋_GB2312"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="仿宋_GB2312"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="仿宋_GB2312"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="仿宋_GB2312"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="仿宋_GB2312"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="仿宋_GB2312"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="仿宋_GB2312"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="仿宋_GB2312"/>
+      <sz val="10.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="仿宋_GB2312"/>
@@ -3451,7 +3589,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="275">
+  <cellXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3743,6 +3881,45 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
@@ -4335,7 +4512,7 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
@@ -4345,7 +4522,7 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
@@ -4357,7 +4534,7 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
@@ -4949,7 +5126,7 @@
       </c>
     </row>
     <row r="2" ht="1.0" customHeight="true">
-      <c r="A2" s="274" t="s">
+      <c r="A2" s="313" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4958,35 +5135,35 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" ht="40.0" customHeight="true" s="273" customFormat="true">
-      <c r="A4" s="273" t="s">
+    <row r="4" ht="40.0" customHeight="true" s="312" customFormat="true">
+      <c r="A4" s="312" t="s">
         <v>181</v>
       </c>
-      <c r="B4" s="273" t="s">
+      <c r="B4" s="312" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="273" t="s">
+      <c r="C4" s="312" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="273" t="s">
+      <c r="D4" s="312" t="s">
         <v>184</v>
       </c>
-      <c r="E4" s="273" t="s">
+      <c r="E4" s="312" t="s">
         <v>185</v>
       </c>
-      <c r="F4" s="273" t="s">
+      <c r="F4" s="312" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>360</v>
       </c>
       <c r="B5" t="s">
         <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="D5" t="s">
         <v>197</v>
